--- a/BackTest/2019-10-29 BackTest DVP.xlsx
+++ b/BackTest/2019-10-29 BackTest DVP.xlsx
@@ -1606,17 +1606,13 @@
         <v>12.00999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K35" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1645,22 +1641,14 @@
         <v>11.99499999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K36" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1688,22 +1676,14 @@
         <v>11.98499999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>12</v>
-      </c>
-      <c r="K37" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1731,17 +1711,13 @@
         <v>11.96499999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K38" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1770,22 +1746,14 @@
         <v>11.94499999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1813,22 +1781,14 @@
         <v>11.92499999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K40" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1856,22 +1816,14 @@
         <v>11.90499999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1899,22 +1851,14 @@
         <v>11.88499999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K42" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1942,22 +1886,14 @@
         <v>11.86499999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K43" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1985,22 +1921,14 @@
         <v>11.85499999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K44" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2028,22 +1956,14 @@
         <v>11.83499999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K45" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2071,22 +1991,14 @@
         <v>11.81999999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K46" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2114,22 +2026,14 @@
         <v>11.81</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K47" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2157,22 +2061,14 @@
         <v>11.79999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K48" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2200,22 +2096,14 @@
         <v>11.79499999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K49" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2243,22 +2131,14 @@
         <v>11.79</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K50" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2286,22 +2166,14 @@
         <v>11.78499999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K51" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2329,22 +2201,14 @@
         <v>11.78499999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K52" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2372,22 +2236,14 @@
         <v>11.78499999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K53" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2415,22 +2271,14 @@
         <v>11.79</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K54" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2458,22 +2306,14 @@
         <v>11.79</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K55" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2501,22 +2341,14 @@
         <v>11.78499999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K56" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2544,22 +2376,14 @@
         <v>11.76999999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K57" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2587,22 +2411,14 @@
         <v>11.77499999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K58" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2630,22 +2446,14 @@
         <v>11.76999999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2481,14 @@
         <v>11.76999999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2716,22 +2516,14 @@
         <v>11.76499999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K61" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2759,22 +2551,14 @@
         <v>11.76499999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K62" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2802,22 +2586,14 @@
         <v>11.76999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K63" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2845,22 +2621,14 @@
         <v>11.76999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K64" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2888,22 +2656,14 @@
         <v>11.77999999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K65" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2931,22 +2691,14 @@
         <v>11.78499999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K66" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2974,22 +2726,14 @@
         <v>11.78499999999999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K67" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3017,22 +2761,14 @@
         <v>11.78999999999999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K68" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3060,22 +2796,14 @@
         <v>11.78999999999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K69" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3103,22 +2831,14 @@
         <v>11.79499999999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K70" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3146,22 +2866,14 @@
         <v>11.79999999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K71" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3189,22 +2901,14 @@
         <v>11.80499999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K72" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3232,22 +2936,14 @@
         <v>11.81499999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>12</v>
-      </c>
-      <c r="K73" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3275,22 +2971,14 @@
         <v>11.81499999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3318,22 +3006,14 @@
         <v>11.82499999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3361,22 +3041,14 @@
         <v>11.82999999999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3404,22 +3076,14 @@
         <v>11.83999999999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3447,22 +3111,14 @@
         <v>11.83999999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K78" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3490,22 +3146,14 @@
         <v>11.85</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K79" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3533,22 +3181,14 @@
         <v>11.855</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K80" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3576,22 +3216,14 @@
         <v>11.865</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K81" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3619,22 +3251,14 @@
         <v>11.875</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K82" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3662,22 +3286,14 @@
         <v>11.88</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K83" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3705,22 +3321,14 @@
         <v>11.88</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K84" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3748,22 +3356,14 @@
         <v>11.875</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K85" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3791,22 +3391,14 @@
         <v>11.875</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K86" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3834,22 +3426,14 @@
         <v>11.875</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3877,22 +3461,14 @@
         <v>11.885</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>12</v>
-      </c>
-      <c r="K88" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3920,22 +3496,14 @@
         <v>11.895</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>12</v>
-      </c>
-      <c r="K89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3963,22 +3531,14 @@
         <v>11.9</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>12</v>
-      </c>
-      <c r="K90" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4006,22 +3566,14 @@
         <v>11.9</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K91" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4049,22 +3601,14 @@
         <v>11.9</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4092,22 +3636,14 @@
         <v>11.895</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K93" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4135,22 +3671,14 @@
         <v>11.895</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K94" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +3706,14 @@
         <v>11.9</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>12</v>
-      </c>
-      <c r="K95" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4221,22 +3741,14 @@
         <v>11.915</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K96" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4264,22 +3776,14 @@
         <v>11.92499999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K97" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4307,22 +3811,14 @@
         <v>11.92999999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>12</v>
-      </c>
-      <c r="K98" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4356,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4397,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4438,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4479,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4514,22 +3986,14 @@
         <v>11.96499999999999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K103" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4563,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4604,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4645,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4686,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4727,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4768,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4809,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4850,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4891,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4932,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4973,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5014,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5055,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5096,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5137,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5178,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5219,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5260,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5301,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5342,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5383,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5424,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5465,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5506,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5547,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5588,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5629,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5670,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5711,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5752,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5793,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5834,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5875,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5916,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5957,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5998,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6039,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6080,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6121,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6162,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6203,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6244,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6285,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6326,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6367,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6408,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6449,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6490,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6531,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6572,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6613,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6654,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6695,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6736,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6777,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6818,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6859,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6900,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6941,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6982,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7023,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7064,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7105,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7146,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7187,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7228,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7269,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7310,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7351,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7392,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7433,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7471,19 +6509,13 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>1.071271186440678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -10802,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
@@ -10837,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
@@ -10872,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
@@ -13392,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
@@ -13427,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
@@ -13462,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
@@ -13497,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
@@ -20984,14 +20016,20 @@
         <v>12.06499999999996</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>12</v>
+      </c>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21026,7 +20064,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21061,7 +20103,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21096,7 +20142,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21131,7 +20181,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21166,7 +20220,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21201,7 +20259,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21229,14 +20291,20 @@
         <v>11.92499999999997</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
       </c>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>11.7</v>
+      </c>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21270,12 +20338,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K569" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L569" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21311,12 +20381,10 @@
       <c r="J570" t="n">
         <v>11.9</v>
       </c>
-      <c r="K570" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M570" t="n">
@@ -21354,12 +20422,10 @@
       <c r="J571" t="n">
         <v>11.9</v>
       </c>
-      <c r="K571" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M571" t="n">
@@ -21395,12 +20461,14 @@
         <v>0</v>
       </c>
       <c r="J572" t="n">
-        <v>12</v>
-      </c>
-      <c r="K572" t="n">
-        <v>12</v>
-      </c>
-      <c r="L572" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21436,12 +20504,10 @@
       <c r="J573" t="n">
         <v>12</v>
       </c>
-      <c r="K573" t="n">
-        <v>12</v>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M573" t="n">
@@ -21471,15 +20537,15 @@
         <v>11.91999999999997</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="n">
-        <v>12</v>
-      </c>
+      <c r="J574" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21518,9 +20584,7 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="n">
-        <v>12</v>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21559,9 +20623,7 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="n">
-        <v>12</v>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21594,17 +20656,13 @@
         <v>11.89999999999997</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
       </c>
-      <c r="J577" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K577" t="n">
-        <v>12</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21637,17 +20695,13 @@
         <v>11.88999999999997</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K578" t="n">
-        <v>12</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21680,17 +20734,13 @@
         <v>11.88499999999997</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K579" t="n">
-        <v>12</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21723,17 +20773,13 @@
         <v>11.87999999999997</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K580" t="n">
-        <v>12</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21766,17 +20812,13 @@
         <v>11.87499999999997</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K581" t="n">
-        <v>12</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21809,17 +20851,13 @@
         <v>11.87999999999997</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
       </c>
-      <c r="J582" t="n">
-        <v>12</v>
-      </c>
-      <c r="K582" t="n">
-        <v>12</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21852,17 +20890,13 @@
         <v>11.88999999999997</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K583" t="n">
-        <v>12</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21895,17 +20929,13 @@
         <v>11.90499999999997</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K584" t="n">
-        <v>12</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21944,9 +20974,7 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="n">
-        <v>12</v>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21985,9 +21013,7 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="n">
-        <v>12</v>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22026,9 +21052,7 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="n">
-        <v>12</v>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22067,9 +21091,7 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="n">
-        <v>12</v>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22108,9 +21130,7 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="n">
-        <v>12</v>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22149,9 +21169,7 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="n">
-        <v>12</v>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-29 BackTest DVP.xlsx
+++ b/BackTest/2019-10-29 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2036124.86504918</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-2034244.65674918</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-2034244.65674918</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-2034244.65674918</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-2034244.65674918</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-1959156.07164918</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-1959156.07164918</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>-1867228.36674918</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +766,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +805,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +844,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>12</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +883,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>12</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +961,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>12</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1000,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>12</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>12</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1078,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>12</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1117,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>12</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1156,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>12</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1195,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>12</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>12</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1273,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>12</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1312,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>12</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1351,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>12</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1390,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>12</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1429,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1468,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>12</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1507,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>12</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1546,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1585,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>12</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1624,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>12</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1663,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>12</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1702,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>12</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1741,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>12</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1780,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>12</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1819,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1858,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1897,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>12</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1936,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>12</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1975,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>12</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2014,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>12</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2050,19 @@
         <v>-1677264.01784918</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>12</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2091,19 @@
         <v>-1676638.24554918</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>12</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2132,19 @@
         <v>-1697776.93814918</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>12</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2173,19 @@
         <v>-1697776.93814918</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2214,19 @@
         <v>-1697776.93814918</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>12</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2255,19 @@
         <v>-1697776.93814918</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>12</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2296,19 @@
         <v>-1827776.93814918</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2337,19 @@
         <v>-1827776.93814918</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>12</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2378,19 @@
         <v>-1827776.93814918</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>12</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2419,19 @@
         <v>-1994407.76514918</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>12</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2460,19 @@
         <v>-1994407.76514918</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>12</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2501,19 @@
         <v>-1994417.76514918</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>12</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2542,19 @@
         <v>-1782132.89334918</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>12</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2583,19 @@
         <v>-1782862.89334918</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>12</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2624,19 @@
         <v>-1782862.89334918</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>12</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2665,19 @@
         <v>-1782862.89334918</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J58" t="n">
+        <v>12</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2706,19 @@
         <v>-1780201.64764918</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J59" t="n">
+        <v>12</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2747,19 @@
         <v>-1771079.64264918</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>12</v>
+      </c>
+      <c r="J60" t="n">
+        <v>12</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2788,19 @@
         <v>-1771079.64264918</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>12</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2829,19 @@
         <v>-1801760.99694918</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>12</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2870,19 @@
         <v>-1801740.99694918</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>12</v>
+      </c>
+      <c r="J63" t="n">
+        <v>12</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2914,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>12</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2953,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>12</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2992,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>12</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +3031,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>12</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3070,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>12</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3109,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>12</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3148,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>12</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3187,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>12</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3226,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>12</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3265,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>12</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3304,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>12</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3343,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>12</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3382,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>12</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3421,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>12</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3460,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>12</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3499,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>12</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3538,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>12</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3577,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>12</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3616,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>12</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3655,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>12</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3694,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>12</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3733,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>12</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3772,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>12</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3811,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>12</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3850,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>12</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3889,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3925,19 @@
         <v>-2797060.50824918</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J90" t="n">
+        <v>12</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3966,19 @@
         <v>-3395560.50824918</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J91" t="n">
+        <v>12</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +4007,19 @@
         <v>-3369404.71444918</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>12</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +4048,19 @@
         <v>-2774974.65954918</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J93" t="n">
+        <v>12</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +4089,19 @@
         <v>-2873055.541849181</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J94" t="n">
+        <v>12</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +4130,19 @@
         <v>-2872848.794049181</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>12</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +4171,19 @@
         <v>-2872838.794049181</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J96" t="n">
+        <v>12</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +4212,19 @@
         <v>-3335117.211149181</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>12</v>
+      </c>
+      <c r="J97" t="n">
+        <v>12</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +4253,19 @@
         <v>-3335117.211149181</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>12</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +4294,19 @@
         <v>-3335117.211149181</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J99" t="n">
+        <v>12</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4335,19 @@
         <v>-3436453.976749181</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J100" t="n">
+        <v>12</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4376,19 @@
         <v>-3803004.870849181</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>12</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,15 +4417,17 @@
         <v>-3803004.870849181</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>11.6</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>12</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3790,12 +4458,14 @@
         <v>-3802994.870849181</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>11.6</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>12</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3829,12 +4499,14 @@
         <v>-3878809.654149181</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>11.8</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>12</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3868,12 +4540,14 @@
         <v>-3878799.654149181</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>11.7</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>12</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3907,12 +4581,14 @@
         <v>-3878799.654149181</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>11.8</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>12</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3946,12 +4622,14 @@
         <v>-4113454.387749181</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>11.8</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>12</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3985,12 +4663,14 @@
         <v>-4113444.387749181</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>11.7</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>12</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4024,12 +4704,14 @@
         <v>-4106192.493249181</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>11.8</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>12</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,12 +4745,14 @@
         <v>-4118452.493249181</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>11.9</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>12</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4102,12 +4786,14 @@
         <v>-4118452.493249181</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>11.8</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>12</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4141,12 +4827,14 @@
         <v>-4118463.132749181</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>11.8</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>12</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4180,12 +4868,14 @@
         <v>-4118453.132749181</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>11.7</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>12</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4219,12 +4909,14 @@
         <v>-4191624.656149181</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>11.9</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>12</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4258,12 +4950,14 @@
         <v>-4191624.656149181</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>11.7</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>12</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4297,12 +4991,14 @@
         <v>-4191624.656149181</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>11.7</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>12</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4336,12 +5032,14 @@
         <v>-4191614.656149181</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>11.7</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>12</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4375,12 +5073,14 @@
         <v>-4513858.36844918</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>11.9</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>12</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4414,12 +5114,14 @@
         <v>-4502966.75834918</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>11.7</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>12</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,12 +5155,14 @@
         <v>-4506511.480749181</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>11.8</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>12</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4492,12 +5196,14 @@
         <v>-4506511.480749181</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>11.7</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>12</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4531,12 +5237,14 @@
         <v>-4506501.480749181</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>11.7</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>12</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4570,12 +5278,14 @@
         <v>-4506501.480749181</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>11.8</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>12</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4609,12 +5319,14 @@
         <v>-4068361.22864918</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>11.8</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>12</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4648,12 +5360,14 @@
         <v>-4068361.22864918</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>11.9</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>12</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4687,10 +5401,14 @@
         <v>-4068373.36474918</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>12</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,10 +5442,14 @@
         <v>-4068373.36474918</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J127" t="n">
+        <v>12</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,10 +5483,14 @@
         <v>-4068373.36474918</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J128" t="n">
+        <v>12</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4798,12 +5524,14 @@
         <v>-3974466.25214918</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>11.8</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>12</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4837,12 +5565,14 @@
         <v>-3645905.01214918</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>11.9</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>12</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4876,12 +5606,14 @@
         <v>-3767001.75604918</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>12</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>12</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4915,12 +5647,14 @@
         <v>-3643974.71654918</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>11.8</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>12</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4954,10 +5688,14 @@
         <v>-3740216.501849181</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>12</v>
+      </c>
+      <c r="J133" t="n">
+        <v>12</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4991,10 +5729,14 @@
         <v>-3740216.501849181</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J134" t="n">
+        <v>12</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5028,10 +5770,14 @@
         <v>-3905839.60304918</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J135" t="n">
+        <v>12</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5065,10 +5811,14 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J136" t="n">
+        <v>12</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,10 +5852,14 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J137" t="n">
+        <v>12</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5139,10 +5893,14 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J138" t="n">
+        <v>12</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5176,12 +5934,14 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>11.9</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>12</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5215,10 +5975,14 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J140" t="n">
+        <v>12</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5252,10 +6016,14 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J141" t="n">
+        <v>12</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5289,10 +6057,14 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J142" t="n">
+        <v>12</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5326,10 +6098,14 @@
         <v>-3956321.044449181</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J143" t="n">
+        <v>12</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5363,10 +6139,14 @@
         <v>-3956321.044449181</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J144" t="n">
+        <v>12</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5400,10 +6180,14 @@
         <v>-3956321.044449181</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J145" t="n">
+        <v>12</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5437,10 +6221,14 @@
         <v>-3956321.044449181</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J146" t="n">
+        <v>12</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5474,10 +6262,14 @@
         <v>-3942060.494449181</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J147" t="n">
+        <v>12</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5511,10 +6303,14 @@
         <v>-3942060.494449181</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>12</v>
+      </c>
+      <c r="J148" t="n">
+        <v>12</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5548,10 +6344,14 @@
         <v>-3942060.494449181</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>12</v>
+      </c>
+      <c r="J149" t="n">
+        <v>12</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5585,10 +6385,14 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>12</v>
+      </c>
+      <c r="J150" t="n">
+        <v>12</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5622,10 +6426,14 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J151" t="n">
+        <v>12</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5659,10 +6467,14 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J152" t="n">
+        <v>12</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5696,10 +6508,14 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J153" t="n">
+        <v>12</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5733,10 +6549,14 @@
         <v>-3652658.099649181</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J154" t="n">
+        <v>12</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5770,10 +6590,14 @@
         <v>-3639631.079049181</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>12</v>
+      </c>
+      <c r="J155" t="n">
+        <v>12</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5807,10 +6631,14 @@
         <v>-3639631.079049181</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>12</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5844,10 +6672,14 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>12</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5881,10 +6713,14 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>12</v>
+      </c>
+      <c r="J158" t="n">
+        <v>12</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5918,10 +6754,14 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>12</v>
+      </c>
+      <c r="J159" t="n">
+        <v>12</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5955,10 +6795,14 @@
         <v>-3764352.852149181</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>12</v>
+      </c>
+      <c r="J160" t="n">
+        <v>12</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5992,10 +6836,14 @@
         <v>-1814342.852149181</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J161" t="n">
+        <v>12</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6029,10 +6877,14 @@
         <v>-1666857.722549181</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>12</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6066,10 +6918,14 @@
         <v>-1709012.36304918</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>12</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6106,7 +6962,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>12</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6140,10 +6998,14 @@
         <v>-1709012.36304918</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>12</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6177,10 +7039,14 @@
         <v>-1445799.09974918</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>12</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6217,7 +7083,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>12</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6251,10 +7119,14 @@
         <v>131599.6161508195</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J168" t="n">
+        <v>12</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6288,10 +7160,14 @@
         <v>-517104.6827491806</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J169" t="n">
+        <v>12</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6328,7 +7204,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>12</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6365,7 +7243,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>12</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6399,10 +7279,14 @@
         <v>-545148.3779491805</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J172" t="n">
+        <v>12</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6439,7 +7323,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>12</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6476,7 +7362,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>12</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6513,7 +7401,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>12</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6550,7 +7440,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>12</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6587,7 +7479,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>12</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6624,7 +7518,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>12</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6658,10 +7554,14 @@
         <v>-148287.5357491806</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>12</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6695,10 +7595,14 @@
         <v>212885.7755508194</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>12</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6732,10 +7636,14 @@
         <v>212885.7755508194</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J181" t="n">
+        <v>12</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6772,7 +7680,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>12</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6809,7 +7719,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>12</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6846,7 +7758,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>12</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6883,7 +7797,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>12</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6920,7 +7836,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>12</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6957,7 +7875,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>12</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6994,7 +7914,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>12</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7031,7 +7953,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>12</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7068,7 +7992,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>12</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7105,7 +8031,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>12</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7142,7 +8070,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>12</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7179,7 +8109,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>12</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7216,7 +8148,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>12</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7250,10 +8184,14 @@
         <v>-1068117.380049181</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>12</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7287,10 +8225,14 @@
         <v>-1068117.380049181</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>12</v>
+      </c>
+      <c r="J196" t="n">
+        <v>12</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7324,10 +8266,14 @@
         <v>-1059995.937449181</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>12</v>
+      </c>
+      <c r="J197" t="n">
+        <v>12</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7364,7 +8310,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>12</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7401,7 +8349,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>12</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7438,7 +8388,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>12</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7475,7 +8427,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>12</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7512,7 +8466,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>12</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7549,7 +8505,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>12</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7586,7 +8544,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>12</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7623,7 +8583,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>12</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7660,7 +8622,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>12</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7697,7 +8661,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>12</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7734,7 +8700,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>12</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7771,7 +8739,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>12</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7808,7 +8778,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>12</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7845,7 +8817,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>12</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7882,7 +8856,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>12</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7919,7 +8895,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>12</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7956,7 +8934,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>12</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7993,7 +8973,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>12</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8030,7 +9012,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>12</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8067,7 +9051,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>12</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8104,7 +9090,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>12</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8141,7 +9129,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>12</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8178,7 +9168,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>12</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8215,7 +9207,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>12</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8252,7 +9246,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>12</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,7 +9285,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>12</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8326,7 +9324,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>12</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8363,7 +9363,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>12</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8400,7 +9402,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>12</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8437,7 +9441,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>12</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8474,7 +9480,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>12</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8511,7 +9519,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>12</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8548,7 +9558,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>12</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8585,7 +9597,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>12</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8622,7 +9636,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>12</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8659,7 +9675,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>12</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8696,7 +9714,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>12</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8733,7 +9753,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>12</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8770,7 +9792,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>12</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8807,7 +9831,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>12</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8844,7 +9870,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>12</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8881,7 +9909,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>12</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8918,7 +9948,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>12</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8955,7 +9987,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>12</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8992,7 +10026,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>12</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9029,7 +10065,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>12</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9066,7 +10104,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>12</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9103,7 +10143,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>12</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9140,7 +10182,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>12</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9177,7 +10221,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>12</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9214,7 +10260,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>12</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9251,7 +10299,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>12</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9288,7 +10338,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>12</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9325,7 +10377,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>12</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9362,7 +10416,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>12</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9399,7 +10455,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>12</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9436,7 +10494,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>12</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9473,7 +10533,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>12</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9510,7 +10572,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>12</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9547,7 +10611,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>12</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9584,7 +10650,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>12</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9621,7 +10689,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>12</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9658,7 +10728,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>12</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9695,7 +10767,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>12</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9732,7 +10806,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>12</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9769,7 +10845,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>12</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9806,7 +10884,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>12</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9843,7 +10923,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>12</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9880,7 +10962,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>12</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9917,7 +11001,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>12</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9954,7 +11040,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>12</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9991,7 +11079,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>12</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10028,7 +11118,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>12</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10065,7 +11157,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>12</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10102,7 +11196,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>12</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10139,7 +11235,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>12</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10176,7 +11274,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>12</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10213,7 +11313,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>12</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10250,7 +11352,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>12</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10287,7 +11391,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>12</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10324,7 +11430,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>12</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10361,7 +11469,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>12</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10398,7 +11508,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>12</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10435,7 +11547,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>12</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10472,7 +11586,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>12</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10509,7 +11625,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>12</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10546,7 +11664,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>12</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10583,7 +11703,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>12</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10620,7 +11742,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>12</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10657,7 +11781,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>12</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10694,7 +11820,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>12</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10731,7 +11859,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>12</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10768,7 +11898,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>12</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10805,7 +11937,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>12</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10842,7 +11976,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>12</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10879,7 +12015,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>12</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10916,7 +12054,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>12</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10953,7 +12093,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>12</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10990,7 +12132,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>12</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11027,7 +12171,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>12</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11064,7 +12210,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>12</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11101,7 +12249,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>12</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11138,7 +12288,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>12</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11175,7 +12327,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>12</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11212,7 +12366,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>12</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11249,7 +12405,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>12</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11286,7 +12444,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>12</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11323,7 +12483,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>12</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11360,7 +12522,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>12</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11397,7 +12561,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>12</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11434,7 +12600,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>12</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11471,7 +12639,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>12</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11508,7 +12678,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>12</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11545,7 +12717,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>12</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11582,7 +12756,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>12</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11619,7 +12795,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>12</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11656,7 +12834,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>12</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11693,7 +12873,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>12</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11730,7 +12912,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>12</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11767,7 +12951,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>12</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11804,7 +12990,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>12</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11841,7 +13029,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>12</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11878,7 +13068,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>12</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11915,7 +13107,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>12</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11952,7 +13146,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>12</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11989,7 +13185,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>12</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12026,7 +13224,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>12</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12063,7 +13263,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>12</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12100,7 +13302,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>12</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12137,7 +13341,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>12</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12174,7 +13380,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>12</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12211,7 +13419,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>12</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12248,7 +13458,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>12</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12285,7 +13497,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>12</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12322,7 +13536,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>12</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12359,7 +13575,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>12</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12396,7 +13614,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>12</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12433,7 +13653,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>12</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12470,7 +13692,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>12</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12507,7 +13731,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>12</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12544,7 +13770,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>12</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12581,7 +13809,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>12</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12618,7 +13848,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>12</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12655,7 +13887,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>12</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12692,7 +13926,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>12</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12729,7 +13965,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>12</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12766,7 +14004,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>12</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12803,7 +14043,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>12</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12840,7 +14082,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>12</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12877,7 +14121,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>12</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12914,7 +14160,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>12</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12951,7 +14199,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>12</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12988,7 +14238,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>12</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13025,7 +14277,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>12</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13062,7 +14316,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>12</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13099,7 +14355,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>12</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13136,7 +14394,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>12</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13173,7 +14433,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>12</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13210,7 +14472,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>12</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13247,7 +14511,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>12</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13284,7 +14550,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>12</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13321,7 +14589,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>12</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13358,7 +14628,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>12</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13395,7 +14667,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>12</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13432,7 +14706,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>12</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13469,7 +14745,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>12</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13506,7 +14784,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>12</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13543,7 +14823,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>12</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13580,7 +14862,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>12</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13617,7 +14901,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>12</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13654,7 +14940,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>12</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13691,7 +14979,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>12</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13728,7 +15018,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>12</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13765,7 +15057,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>12</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13802,7 +15096,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>12</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13839,7 +15135,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>12</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13876,7 +15174,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>12</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13913,7 +15213,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>12</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13950,7 +15252,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>12</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13987,7 +15291,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>12</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14024,7 +15330,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>12</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14061,7 +15369,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>12</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14098,7 +15408,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>12</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14135,7 +15447,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>12</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14172,7 +15486,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>12</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14209,7 +15525,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>12</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14246,7 +15564,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>12</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14283,7 +15603,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>12</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14320,7 +15642,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>12</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14357,7 +15681,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>12</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14394,7 +15720,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>12</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14431,7 +15759,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>12</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14468,7 +15798,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>12</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14505,7 +15837,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>12</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14542,7 +15876,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>12</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14579,7 +15915,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>12</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14616,7 +15954,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>12</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14653,7 +15993,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>12</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14690,7 +16032,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>12</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14727,7 +16071,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>12</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14764,7 +16110,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>12</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14801,7 +16149,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>12</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14838,7 +16188,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>12</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14872,19 +16224,23 @@
         <v>10269207.08503127</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>12</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
+        <v>1.161666666666667</v>
+      </c>
+      <c r="M401" t="n">
+        <v>1.008403361344538</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -14909,16 +16265,14 @@
         <v>9824028.509431275</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
       <c r="M402" t="inlineStr"/>
     </row>
     <row r="403">
@@ -14944,7 +16298,7 @@
         <v>10116138.57101699</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14977,7 +16331,7 @@
         <v>10116138.57101699</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15010,7 +16364,7 @@
         <v>9405689.03561699</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15043,7 +16397,7 @@
         <v>9405689.03561699</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15076,7 +16430,7 @@
         <v>9673815.56331699</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15109,7 +16463,7 @@
         <v>9326156.90851699</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15142,7 +16496,7 @@
         <v>9326156.90851699</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15175,7 +16529,7 @@
         <v>8923480.097816991</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15208,7 +16562,7 @@
         <v>9210513.805016991</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15241,7 +16595,7 @@
         <v>9476091.192216991</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15274,7 +16628,7 @@
         <v>9600517.04781699</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15307,7 +16661,7 @@
         <v>9600517.04781699</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15340,7 +16694,7 @@
         <v>9784157.43611699</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15373,7 +16727,7 @@
         <v>9946131.512578692</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15406,7 +16760,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15439,7 +16793,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15934,7 +17288,7 @@
         <v>7925176.728778692</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16000,7 +17354,7 @@
         <v>7925376.728778692</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16033,7 +17387,7 @@
         <v>8153692.769378692</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16066,7 +17420,7 @@
         <v>8106340.907378692</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16099,7 +17453,7 @@
         <v>8180807.976878692</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16132,7 +17486,7 @@
         <v>8180807.976878692</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16165,7 +17519,7 @@
         <v>8564762.898178693</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16198,7 +17552,7 @@
         <v>8341327.369578693</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16231,7 +17585,7 @@
         <v>8276251.498978693</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16264,7 +17618,7 @@
         <v>8276251.498978693</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16297,7 +17651,7 @@
         <v>8276251.498978693</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16363,7 +17717,7 @@
         <v>7758155.295978693</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16396,7 +17750,7 @@
         <v>7733973.908178694</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16429,7 +17783,7 @@
         <v>7753092.351378693</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16495,7 +17849,7 @@
         <v>7161401.054778693</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16528,7 +17882,7 @@
         <v>7140726.250078693</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16561,7 +17915,7 @@
         <v>7202174.953978693</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16594,7 +17948,7 @@
         <v>7084046.916078693</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16627,7 +17981,7 @@
         <v>7046329.465378693</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16660,7 +18014,7 @@
         <v>7125851.582778693</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16693,7 +18047,7 @@
         <v>7125851.582778693</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16726,7 +18080,7 @@
         <v>7125851.582778693</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16759,7 +18113,7 @@
         <v>7125851.582778693</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16792,7 +18146,7 @@
         <v>7125851.582778693</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16825,7 +18179,7 @@
         <v>7125851.582778693</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16858,7 +18212,7 @@
         <v>6539445.313678693</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16891,7 +18245,7 @@
         <v>6757426.238778693</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16924,7 +18278,7 @@
         <v>6696522.374578693</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16957,7 +18311,7 @@
         <v>6612410.852378692</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16990,7 +18344,7 @@
         <v>6612410.852378692</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17023,7 +18377,7 @@
         <v>6612410.852378692</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17056,7 +18410,7 @@
         <v>6612410.852378692</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -21874,10 +23228,14 @@
         <v>-1111043.167921308</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J613" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
@@ -21910,8 +23268,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21943,8 +23307,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23293,7 +24663,7 @@
         <v>-968538.8447596414</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
         <v>11.9</v>
@@ -23330,7 +24700,7 @@
         <v>-968618.5947596414</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I657" t="n">
         <v>12</v>
@@ -23410,7 +24780,7 @@
         <v>-966431.3877596415</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
         <v>12</v>
@@ -23425,6 +24795,6 @@
       <c r="M659" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest DVP.xlsx
+++ b/BackTest/2019-10-29 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2036124.86504918</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-2034244.65674918</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-2034244.65674918</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-2034244.65674918</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-2034244.65674918</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,1962 +616,1640 @@
         <v>-1959156.07164918</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>51650.8724</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1959156.07164918</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>91927.7049</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1867228.36674918</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3519.4057</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1863708.96104918</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>107682.2763</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1863708.96104918</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9547.8861</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1863708.96104918</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>275017.8483</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1863708.96104918</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="J7" t="n">
+      <c r="B14" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6154.9926</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1863708.96104918</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>35822.0634</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1863708.96104918</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26665.1462</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1863708.96104918</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>49148.7219</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1863708.96104918</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1863758.96104918</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5563.3607</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-1863758.96104918</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25344.2926</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1838414.66844918</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>43581.9795</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1838414.66844918</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1166.1496</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1838414.66844918</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1838404.66844918</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>190192.7095</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1838404.66844918</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>52771.7569</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1785632.91154918</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>282497.1861</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2068130.09764918</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>194015.727</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2068130.09764918</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7907</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-2068130.09764918</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>140.5983</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2068270.69594918</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2068170.69594918</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1800.9217</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-2069971.61764918</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>360000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1709971.61764918</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>87820.1612</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1622151.45644918</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5794.5645</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1622151.45644918</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>29424.1129</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1622151.45644918</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>41456.9354</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-1622151.45644918</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-1622151.45644918</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5111.626</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1627263.08244918</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>18465.2845</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1627263.08244918</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1627263.08244918</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1627263.08244918</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>50000.9354</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1677264.01784918</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>10795.294</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1677264.01784918</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>625.7723</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1676638.24554918</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>21138.6926</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1697776.93814918</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9819.9707</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1697776.93814918</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9180.2505</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1697776.93814918</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>52001.7009</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1697776.93814918</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1827776.93814918</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>43000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-1827776.93814918</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>895.2752</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1827776.93814918</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
         <v>12</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="C52" t="n">
+        <v>12</v>
+      </c>
+      <c r="D52" t="n">
+        <v>12</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12</v>
+      </c>
+      <c r="F52" t="n">
+        <v>166630.827</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1994407.76514918</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12</v>
+      </c>
+      <c r="C53" t="n">
+        <v>12</v>
+      </c>
+      <c r="D53" t="n">
+        <v>12</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12</v>
+      </c>
+      <c r="F53" t="n">
+        <v>11739.4005</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1994407.76514918</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C54" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>10</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1994417.76514918</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>12</v>
+      </c>
+      <c r="C55" t="n">
+        <v>12</v>
+      </c>
+      <c r="D55" t="n">
+        <v>12</v>
+      </c>
+      <c r="E55" t="n">
+        <v>12</v>
+      </c>
+      <c r="F55" t="n">
+        <v>212284.8718</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1782132.89334918</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>12</v>
+      </c>
+      <c r="C56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>12</v>
+      </c>
+      <c r="E56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>730</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1782862.89334918</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>12</v>
+      </c>
+      <c r="J56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>51650.8724</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-1959156.07164918</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>12</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>91927.7049</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-1867228.36674918</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3519.4057</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-1863708.96104918</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>12</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>107682.2763</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-1863708.96104918</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>12</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9547.8861</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-1863708.96104918</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>12</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>275017.8483</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-1863708.96104918</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>12</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6154.9926</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-1863708.96104918</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>12</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>35822.0634</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-1863708.96104918</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>12</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>26665.1462</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-1863708.96104918</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>12</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>49148.7219</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-1863708.96104918</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>12</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>50</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-1863758.96104918</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>12</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5563.3607</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-1863758.96104918</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>12</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>25344.2926</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-1838414.66844918</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>12</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>43581.9795</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-1838414.66844918</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>12</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1166.1496</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-1838414.66844918</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>12</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C23" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D23" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E23" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-1838404.66844918</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>12</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D24" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E24" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>190192.7095</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-1838404.66844918</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>12</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E25" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>52771.7569</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-1785632.91154918</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>12</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C26" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F26" t="n">
-        <v>282497.1861</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-2068130.09764918</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>12</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D27" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E27" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F27" t="n">
-        <v>194015.727</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-2068130.09764918</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>12</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C28" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D28" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E28" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F28" t="n">
-        <v>7907</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-2068130.09764918</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>12</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C29" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D29" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E29" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>140.5983</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-2068270.69594918</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>12</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-2068170.69594918</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>12</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1800.9217</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-2069971.61764918</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>12</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C32" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F32" t="n">
-        <v>360000</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-1709971.61764918</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>12</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C33" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D33" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E33" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F33" t="n">
-        <v>87820.1612</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-1622151.45644918</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>12</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C34" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D34" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E34" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>5794.5645</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-1622151.45644918</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>12</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C35" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D35" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>29424.1129</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-1622151.45644918</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>12</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>41456.9354</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-1622151.45644918</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>12</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-1622151.45644918</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>12</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D38" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F38" t="n">
-        <v>5111.626</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-1627263.08244918</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>12</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C39" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E39" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>18465.2845</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-1627263.08244918</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>12</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C40" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D40" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E40" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-1627263.08244918</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>12</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C41" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D41" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E41" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-1627263.08244918</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>12</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>50000.9354</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-1677264.01784918</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>12</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>10795.294</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-1677264.01784918</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>12</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C44" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D44" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E44" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F44" t="n">
-        <v>625.7723</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-1676638.24554918</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>12</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C45" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D45" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E45" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F45" t="n">
-        <v>21138.6926</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-1697776.93814918</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>12</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C46" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D46" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F46" t="n">
-        <v>9819.9707</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-1697776.93814918</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>12</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C47" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D47" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>9180.2505</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-1697776.93814918</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>12</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C48" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D48" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F48" t="n">
-        <v>52001.7009</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-1697776.93814918</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>12</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>130000</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-1827776.93814918</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>12</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F50" t="n">
-        <v>43000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-1827776.93814918</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>12</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>895.2752</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-1827776.93814918</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>12</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>12</v>
-      </c>
-      <c r="C52" t="n">
-        <v>12</v>
-      </c>
-      <c r="D52" t="n">
-        <v>12</v>
-      </c>
-      <c r="E52" t="n">
-        <v>12</v>
-      </c>
-      <c r="F52" t="n">
-        <v>166630.827</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-1994407.76514918</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>12</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>12</v>
-      </c>
-      <c r="C53" t="n">
-        <v>12</v>
-      </c>
-      <c r="D53" t="n">
-        <v>12</v>
-      </c>
-      <c r="E53" t="n">
-        <v>12</v>
-      </c>
-      <c r="F53" t="n">
-        <v>11739.4005</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-1994407.76514918</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>12</v>
-      </c>
-      <c r="J53" t="n">
-        <v>12</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C54" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D54" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E54" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>10</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-1994417.76514918</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>12</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>12</v>
-      </c>
-      <c r="C55" t="n">
-        <v>12</v>
-      </c>
-      <c r="D55" t="n">
-        <v>12</v>
-      </c>
-      <c r="E55" t="n">
-        <v>12</v>
-      </c>
-      <c r="F55" t="n">
-        <v>212284.8718</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-1782132.89334918</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>12</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>12</v>
-      </c>
-      <c r="C56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D56" t="n">
-        <v>12</v>
-      </c>
-      <c r="E56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F56" t="n">
-        <v>730</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-1782862.89334918</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>12</v>
-      </c>
-      <c r="J56" t="n">
-        <v>12</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2630,7 +2284,7 @@
         <v>11.9</v>
       </c>
       <c r="J57" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2671,7 +2325,7 @@
         <v>11.9</v>
       </c>
       <c r="J58" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2712,7 +2366,7 @@
         <v>11.9</v>
       </c>
       <c r="J59" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2753,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="J60" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2794,7 +2448,7 @@
         <v>12.1</v>
       </c>
       <c r="J61" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2835,7 +2489,7 @@
         <v>12.1</v>
       </c>
       <c r="J62" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2876,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="J63" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2915,7 +2569,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2954,7 +2608,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2993,7 +2647,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3032,7 +2686,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3071,7 +2725,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3110,7 +2764,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3149,7 +2803,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3188,7 +2842,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3227,7 +2881,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3266,7 +2920,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3305,7 +2959,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3344,7 +2998,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3383,7 +3037,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3422,7 +3076,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3461,7 +3115,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3500,7 +3154,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3539,7 +3193,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3578,7 +3232,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3617,7 +3271,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3656,7 +3310,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3695,7 +3349,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3734,7 +3388,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3773,7 +3427,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3812,7 +3466,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3847,11 +3501,13 @@
         <v>-1970112.08284918</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J88" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3886,11 +3542,13 @@
         <v>-1970112.08284918</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J89" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3931,7 +3589,7 @@
         <v>11.9</v>
       </c>
       <c r="J90" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3972,7 +3630,7 @@
         <v>11.8</v>
       </c>
       <c r="J91" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4013,7 +3671,7 @@
         <v>11.7</v>
       </c>
       <c r="J92" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4054,7 +3712,7 @@
         <v>11.8</v>
       </c>
       <c r="J93" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4095,7 +3753,7 @@
         <v>11.9</v>
       </c>
       <c r="J94" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4136,7 +3794,7 @@
         <v>11.7</v>
       </c>
       <c r="J95" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4177,7 +3835,7 @@
         <v>11.8</v>
       </c>
       <c r="J96" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4212,13 +3870,11 @@
         <v>-3335117.211149181</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4259,7 +3915,7 @@
         <v>11.8</v>
       </c>
       <c r="J98" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4300,7 +3956,7 @@
         <v>11.8</v>
       </c>
       <c r="J99" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4341,7 +3997,7 @@
         <v>11.8</v>
       </c>
       <c r="J100" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4382,7 +4038,7 @@
         <v>11.7</v>
       </c>
       <c r="J101" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4423,7 +4079,7 @@
         <v>11.6</v>
       </c>
       <c r="J102" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4464,7 +4120,7 @@
         <v>11.6</v>
       </c>
       <c r="J103" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4505,7 +4161,7 @@
         <v>11.8</v>
       </c>
       <c r="J104" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4546,7 +4202,7 @@
         <v>11.7</v>
       </c>
       <c r="J105" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4587,7 +4243,7 @@
         <v>11.8</v>
       </c>
       <c r="J106" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4628,7 +4284,7 @@
         <v>11.8</v>
       </c>
       <c r="J107" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4669,7 +4325,7 @@
         <v>11.7</v>
       </c>
       <c r="J108" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4710,7 +4366,7 @@
         <v>11.8</v>
       </c>
       <c r="J109" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4751,7 +4407,7 @@
         <v>11.9</v>
       </c>
       <c r="J110" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4792,7 +4448,7 @@
         <v>11.8</v>
       </c>
       <c r="J111" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4833,7 +4489,7 @@
         <v>11.8</v>
       </c>
       <c r="J112" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4874,7 +4530,7 @@
         <v>11.7</v>
       </c>
       <c r="J113" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4915,7 +4571,7 @@
         <v>11.9</v>
       </c>
       <c r="J114" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4956,7 +4612,7 @@
         <v>11.7</v>
       </c>
       <c r="J115" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4997,7 +4653,7 @@
         <v>11.7</v>
       </c>
       <c r="J116" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5038,7 +4694,7 @@
         <v>11.7</v>
       </c>
       <c r="J117" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5079,7 +4735,7 @@
         <v>11.9</v>
       </c>
       <c r="J118" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5120,7 +4776,7 @@
         <v>11.7</v>
       </c>
       <c r="J119" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5161,7 +4817,7 @@
         <v>11.8</v>
       </c>
       <c r="J120" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5202,7 +4858,7 @@
         <v>11.7</v>
       </c>
       <c r="J121" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5243,7 +4899,7 @@
         <v>11.7</v>
       </c>
       <c r="J122" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5284,7 +4940,7 @@
         <v>11.8</v>
       </c>
       <c r="J123" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5325,7 +4981,7 @@
         <v>11.8</v>
       </c>
       <c r="J124" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5366,7 +5022,7 @@
         <v>11.9</v>
       </c>
       <c r="J125" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5407,7 +5063,7 @@
         <v>11.9</v>
       </c>
       <c r="J126" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5448,7 +5104,7 @@
         <v>11.8</v>
       </c>
       <c r="J127" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5489,7 +5145,7 @@
         <v>11.8</v>
       </c>
       <c r="J128" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5530,7 +5186,7 @@
         <v>11.8</v>
       </c>
       <c r="J129" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5571,7 +5227,7 @@
         <v>11.9</v>
       </c>
       <c r="J130" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5606,13 +5262,11 @@
         <v>-3767001.75604918</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5647,13 +5301,11 @@
         <v>-3643974.71654918</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5688,13 +5340,11 @@
         <v>-3740216.501849181</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5729,13 +5379,11 @@
         <v>-3740216.501849181</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5770,13 +5418,11 @@
         <v>-3905839.60304918</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5811,13 +5457,11 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5852,13 +5496,11 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5893,13 +5535,11 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5934,13 +5574,11 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5975,13 +5613,11 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -6016,13 +5652,11 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6057,13 +5691,11 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6098,13 +5730,11 @@
         <v>-3956321.044449181</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6139,13 +5769,11 @@
         <v>-3956321.044449181</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6186,7 +5814,7 @@
         <v>11.8</v>
       </c>
       <c r="J145" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6227,7 +5855,7 @@
         <v>11.8</v>
       </c>
       <c r="J146" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6268,7 +5896,7 @@
         <v>11.8</v>
       </c>
       <c r="J147" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6309,7 +5937,7 @@
         <v>12</v>
       </c>
       <c r="J148" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6344,13 +5972,11 @@
         <v>-3942060.494449181</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6391,7 +6017,7 @@
         <v>12</v>
       </c>
       <c r="J150" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6426,13 +6052,11 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6467,13 +6091,11 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6508,13 +6130,11 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6555,7 +6175,7 @@
         <v>11.9</v>
       </c>
       <c r="J154" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6590,13 +6210,11 @@
         <v>-3639631.079049181</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6631,13 +6249,11 @@
         <v>-3639631.079049181</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6672,13 +6288,11 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6713,13 +6327,11 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6754,13 +6366,11 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6795,13 +6405,11 @@
         <v>-3764352.852149181</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6836,13 +6444,11 @@
         <v>-1814342.852149181</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6877,13 +6483,11 @@
         <v>-1666857.722549181</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6918,13 +6522,11 @@
         <v>-1709012.36304918</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6963,7 +6565,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6998,13 +6600,11 @@
         <v>-1709012.36304918</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -7039,13 +6639,11 @@
         <v>-1445799.09974918</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -7084,7 +6682,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7119,13 +6717,11 @@
         <v>131599.6161508195</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7160,13 +6756,11 @@
         <v>-517104.6827491806</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7205,7 +6799,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7240,19 +6834,19 @@
         <v>-548615.4746491805</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L171" t="n">
-        <v>1</v>
+        <v>1.028613445378151</v>
       </c>
       <c r="M171" t="inlineStr"/>
     </row>
@@ -7279,19 +6873,11 @@
         <v>-545148.3779491805</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J172" t="n">
-        <v>12</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7323,14 +6909,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>12</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7362,14 +6942,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>12</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7401,14 +6975,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>12</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7440,14 +7008,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>12</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7479,14 +7041,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>12</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7518,14 +7074,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>12</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7554,19 +7104,11 @@
         <v>-148287.5357491806</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J179" t="n">
-        <v>12</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7595,19 +7137,11 @@
         <v>212885.7755508194</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J180" t="n">
-        <v>12</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7636,19 +7170,11 @@
         <v>212885.7755508194</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J181" t="n">
-        <v>12</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7680,14 +7206,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>12</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7719,14 +7239,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>12</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7758,14 +7272,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>12</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7797,14 +7305,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>12</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7836,14 +7338,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>12</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7875,14 +7371,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>12</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7914,14 +7404,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>12</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7953,14 +7437,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>12</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7992,14 +7470,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>12</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -8031,14 +7503,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>12</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8070,14 +7536,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>12</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8109,14 +7569,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>12</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8148,14 +7602,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>12</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8184,19 +7632,11 @@
         <v>-1068117.380049181</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J195" t="n">
-        <v>12</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8225,19 +7665,11 @@
         <v>-1068117.380049181</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>12</v>
-      </c>
-      <c r="J196" t="n">
-        <v>12</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8266,19 +7698,11 @@
         <v>-1059995.937449181</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>12</v>
-      </c>
-      <c r="J197" t="n">
-        <v>12</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8310,14 +7734,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>12</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8349,14 +7767,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>12</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8388,14 +7800,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>12</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8427,14 +7833,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>12</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8466,14 +7866,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>12</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8505,14 +7899,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>12</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8544,14 +7932,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>12</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8583,14 +7965,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>12</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8622,14 +7998,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>12</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8661,14 +8031,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>12</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8700,14 +8064,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>12</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8739,14 +8097,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>12</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8778,14 +8130,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>12</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8817,14 +8163,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>12</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8856,14 +8196,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>12</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8895,14 +8229,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>12</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8934,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>12</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8973,14 +8295,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>12</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -9012,14 +8328,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>12</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -9051,14 +8361,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>12</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9090,14 +8394,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>12</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9129,14 +8427,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>12</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9168,14 +8460,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>12</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9207,14 +8493,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>12</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9246,14 +8526,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>12</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9285,14 +8559,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>12</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9324,14 +8592,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>12</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9363,14 +8625,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>12</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9399,17 +8655,11 @@
         <v>1624906.643901448</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>12</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9438,17 +8688,11 @@
         <v>1638639.050101448</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>12</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9477,17 +8721,11 @@
         <v>2751697.66279598</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>12</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9516,17 +8754,11 @@
         <v>3119897.47709598</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>12</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9555,17 +8787,11 @@
         <v>2173384.91279598</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>12</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9594,17 +8820,11 @@
         <v>2099040.80909598</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>12</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9633,17 +8853,11 @@
         <v>2432068.33349598</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>12</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9672,17 +8886,11 @@
         <v>2343065.47729598</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>12</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9711,17 +8919,11 @@
         <v>2343065.47729598</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>12</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9750,17 +8952,11 @@
         <v>2670861.60419598</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>12</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9789,17 +8985,11 @@
         <v>2604353.94529598</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>12</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9828,17 +9018,11 @@
         <v>2125999.97079598</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>12</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9867,17 +9051,11 @@
         <v>2125999.97079598</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>12</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9906,17 +9084,11 @@
         <v>2125999.97079598</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>12</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9945,17 +9117,11 @@
         <v>2229132.83459598</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>12</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9984,17 +9150,11 @@
         <v>2198043.12079598</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>12</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -10023,17 +9183,11 @@
         <v>2198043.12079598</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>12</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10062,17 +9216,11 @@
         <v>2136906.021395979</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>12</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10101,17 +9249,11 @@
         <v>1997514.403395979</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>12</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10140,17 +9282,11 @@
         <v>1997514.403395979</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>12</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10179,17 +9315,11 @@
         <v>1997527.403395979</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>12</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10218,17 +9348,11 @@
         <v>1870822.873795979</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>12</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10257,17 +9381,11 @@
         <v>1957175.565795979</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>12</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10296,17 +9414,11 @@
         <v>1886847.45679598</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>12</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10335,17 +9447,11 @@
         <v>2675289.335295979</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>12</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10374,17 +9480,11 @@
         <v>2709066.71099598</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>12</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10413,17 +9513,11 @@
         <v>2603852.550995979</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>12</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10452,17 +9546,11 @@
         <v>2623027.923295979</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>12</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10491,17 +9579,11 @@
         <v>2623010.538695979</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>12</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10530,17 +9612,11 @@
         <v>2623021.538695979</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>12</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10572,14 +9648,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>12</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10611,14 +9681,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>12</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10650,14 +9714,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>12</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10689,14 +9747,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>12</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10728,14 +9780,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>12</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10767,14 +9813,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>12</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10806,14 +9846,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>12</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10845,14 +9879,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>12</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10884,14 +9912,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>12</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10923,14 +9945,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>12</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10962,14 +9978,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>12</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -11001,14 +10011,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>12</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11040,14 +10044,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>12</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11079,14 +10077,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>12</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11118,14 +10110,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>12</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11157,14 +10143,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>12</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11196,14 +10176,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>12</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11235,14 +10209,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>12</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11274,14 +10242,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>12</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11313,14 +10275,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>12</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11352,14 +10308,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>12</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11391,14 +10341,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>12</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11430,14 +10374,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>12</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11469,14 +10407,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>12</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11508,14 +10440,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>12</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11547,14 +10473,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>12</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11586,14 +10506,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>12</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11625,14 +10539,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>12</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11664,14 +10572,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>12</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11703,14 +10605,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>12</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11742,14 +10638,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>12</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11778,17 +10668,11 @@
         <v>2982364.311795979</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>12</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11820,14 +10704,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>12</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11856,17 +10734,11 @@
         <v>3227280.384095979</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>12</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11895,17 +10767,11 @@
         <v>3227280.384095979</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>12</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11934,17 +10800,11 @@
         <v>2692958.631095979</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>12</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11973,17 +10833,11 @@
         <v>1801473.584195979</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>12</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -12012,17 +10866,11 @@
         <v>2086703.369095979</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>12</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12051,17 +10899,11 @@
         <v>2086703.369095979</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>12</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12090,17 +10932,11 @@
         <v>2052035.604595979</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>12</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12129,17 +10965,11 @@
         <v>2052035.604595979</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>12</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12171,14 +11001,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>12</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12210,14 +11034,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>12</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12249,14 +11067,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>12</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12288,14 +11100,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>12</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12327,14 +11133,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>12</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12363,17 +11163,11 @@
         <v>1791233.69779598</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>12</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12402,17 +11196,11 @@
         <v>1791233.69779598</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>12</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12441,17 +11229,11 @@
         <v>1791233.69779598</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>12</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12480,17 +11262,11 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>12</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12519,17 +11295,11 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>12</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12558,17 +11328,11 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>12</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12597,17 +11361,11 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>12</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12636,17 +11394,11 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>12</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12675,17 +11427,11 @@
         <v>1598149.916157518</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>12</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12714,17 +11460,11 @@
         <v>1805912.542957518</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>12</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12753,17 +11493,11 @@
         <v>1640064.262957518</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>12</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12792,17 +11526,11 @@
         <v>1640064.262957518</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>12</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12831,17 +11559,11 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>12</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12870,17 +11592,11 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>12</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12909,17 +11625,11 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>12</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12948,17 +11658,11 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>12</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12987,17 +11691,11 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>12</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -13029,14 +11727,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>12</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13068,14 +11760,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>12</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13107,14 +11793,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>12</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13146,14 +11826,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>12</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13182,17 +11856,11 @@
         <v>1696682.963957518</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>12</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13224,14 +11892,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>12</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13260,17 +11922,11 @@
         <v>4690054.618919057</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>12</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13302,14 +11958,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>12</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13341,14 +11991,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>12</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13380,14 +12024,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>12</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13419,14 +12057,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>12</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13458,14 +12090,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>12</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13497,14 +12123,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>12</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13536,14 +12156,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>12</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13575,14 +12189,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>12</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13614,14 +12222,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>12</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13653,14 +12255,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>12</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13692,14 +12288,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>12</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13731,14 +12321,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>12</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13770,14 +12354,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>12</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13809,14 +12387,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>12</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13848,14 +12420,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>12</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13887,14 +12453,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>12</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13926,14 +12486,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>12</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13965,14 +12519,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>12</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -14004,14 +12552,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>12</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -14043,14 +12585,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>12</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -14082,14 +12618,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>12</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14121,14 +12651,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>12</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14160,14 +12684,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>12</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14199,14 +12717,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>12</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14238,14 +12750,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>12</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14277,14 +12783,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>12</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14316,14 +12816,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>12</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14355,14 +12849,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>12</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14391,17 +12879,11 @@
         <v>7729990.329005411</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>12</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14430,17 +12912,11 @@
         <v>7729990.329005411</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>12</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14469,17 +12945,11 @@
         <v>7729990.329005411</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>12</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14511,14 +12981,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>12</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14550,14 +13014,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>12</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14589,14 +13047,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>12</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14628,14 +13080,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>12</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14667,14 +13113,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>12</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14706,14 +13146,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>12</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14745,14 +13179,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>12</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14784,14 +13212,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>12</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14823,14 +13245,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>12</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14862,14 +13278,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>12</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14901,14 +13311,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>12</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14940,14 +13344,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>12</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14979,14 +13377,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>12</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -15018,14 +13410,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>12</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -15057,14 +13443,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>12</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15096,14 +13476,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>12</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15135,14 +13509,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>12</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15174,14 +13542,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>12</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15213,14 +13575,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>12</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15252,14 +13608,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>12</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15291,14 +13641,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>12</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15330,14 +13674,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>12</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15369,14 +13707,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>12</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15408,14 +13740,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>12</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15447,14 +13773,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>12</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15486,14 +13806,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>12</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15525,14 +13839,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>12</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15564,14 +13872,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>12</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15603,14 +13905,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>12</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15642,14 +13938,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>12</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15681,14 +13971,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>12</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15720,14 +14004,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>12</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15759,14 +14037,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>12</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15798,14 +14070,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>12</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15837,14 +14103,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>12</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15876,14 +14136,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>12</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15915,14 +14169,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>12</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15954,14 +14202,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>12</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15993,14 +14235,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>12</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -16032,14 +14268,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>12</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -16071,14 +14301,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>12</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16110,14 +14334,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>12</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16149,14 +14367,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>12</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16188,14 +14400,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>12</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16224,23 +14430,15 @@
         <v>10269207.08503127</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>12</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
-        <v>1.161666666666667</v>
-      </c>
-      <c r="M401" t="n">
-        <v>1.008403361344538</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -16265,7 +14463,7 @@
         <v>9824028.509431275</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -16298,7 +14496,7 @@
         <v>10116138.57101699</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -16331,7 +14529,7 @@
         <v>10116138.57101699</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16364,7 +14562,7 @@
         <v>9405689.03561699</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16397,7 +14595,7 @@
         <v>9405689.03561699</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16430,7 +14628,7 @@
         <v>9673815.56331699</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16463,7 +14661,7 @@
         <v>9326156.90851699</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16496,7 +14694,7 @@
         <v>9326156.90851699</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16529,7 +14727,7 @@
         <v>8923480.097816991</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16562,7 +14760,7 @@
         <v>9210513.805016991</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16595,7 +14793,7 @@
         <v>9476091.192216991</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16628,7 +14826,7 @@
         <v>9600517.04781699</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16661,7 +14859,7 @@
         <v>9600517.04781699</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16694,7 +14892,7 @@
         <v>9784157.43611699</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16727,7 +14925,7 @@
         <v>9946131.512578692</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16760,7 +14958,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16793,7 +14991,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -17288,7 +15486,7 @@
         <v>7925176.728778692</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17354,7 +15552,7 @@
         <v>7925376.728778692</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17387,7 +15585,7 @@
         <v>8153692.769378692</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17420,7 +15618,7 @@
         <v>8106340.907378692</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17453,7 +15651,7 @@
         <v>8180807.976878692</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17486,7 +15684,7 @@
         <v>8180807.976878692</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17519,7 +15717,7 @@
         <v>8564762.898178693</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17552,7 +15750,7 @@
         <v>8341327.369578693</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17585,7 +15783,7 @@
         <v>8276251.498978693</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17618,7 +15816,7 @@
         <v>8276251.498978693</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17651,7 +15849,7 @@
         <v>8276251.498978693</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17717,7 +15915,7 @@
         <v>7758155.295978693</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17750,7 +15948,7 @@
         <v>7733973.908178694</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17783,7 +15981,7 @@
         <v>7753092.351378693</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17882,7 +16080,7 @@
         <v>7140726.250078693</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17915,7 +16113,7 @@
         <v>7202174.953978693</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17948,7 +16146,7 @@
         <v>7084046.916078693</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17981,7 +16179,7 @@
         <v>7046329.465378693</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -18014,7 +16212,7 @@
         <v>7125851.582778693</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -18047,7 +16245,7 @@
         <v>7125851.582778693</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -18080,7 +16278,7 @@
         <v>7125851.582778693</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -18113,7 +16311,7 @@
         <v>7125851.582778693</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18146,7 +16344,7 @@
         <v>7125851.582778693</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -18179,7 +16377,7 @@
         <v>7125851.582778693</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18212,7 +16410,7 @@
         <v>6539445.313678693</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18245,7 +16443,7 @@
         <v>6757426.238778693</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18278,7 +16476,7 @@
         <v>6696522.374578693</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18311,7 +16509,7 @@
         <v>6612410.852378692</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18344,7 +16542,7 @@
         <v>6612410.852378692</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18377,7 +16575,7 @@
         <v>6612410.852378692</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18410,7 +16608,7 @@
         <v>6612410.852378692</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -23228,14 +21426,10 @@
         <v>-1111043.167921308</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J613" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
@@ -23268,14 +21462,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23307,14 +21495,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24663,14 +22845,10 @@
         <v>-968538.8447596414</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J656" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
@@ -24700,19 +22878,11 @@
         <v>-968618.5947596414</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>12</v>
-      </c>
-      <c r="J657" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24744,14 +22914,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24780,14 +22944,10 @@
         <v>-966431.3877596415</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>12</v>
-      </c>
-      <c r="J659" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
@@ -24795,6 +22955,6 @@
       <c r="M659" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest DVP.xlsx
+++ b/BackTest/2019-10-29 BackTest DVP.xlsx
@@ -2200,14 +2200,10 @@
         <v>-1782132.89334918</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2237,19 +2233,11 @@
         <v>-1782862.89334918</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>12</v>
-      </c>
-      <c r="J56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2278,19 +2266,11 @@
         <v>-1782862.89334918</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J57" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2319,19 +2299,11 @@
         <v>-1782862.89334918</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J58" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2360,19 +2332,11 @@
         <v>-1780201.64764918</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2401,19 +2365,11 @@
         <v>-1771079.64264918</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>12</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2442,19 +2398,11 @@
         <v>-1771079.64264918</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2483,19 +2431,11 @@
         <v>-1801760.99694918</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2524,19 +2464,11 @@
         <v>-1801740.99694918</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>12</v>
-      </c>
-      <c r="J63" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2568,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2607,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2646,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2685,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2724,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2763,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2802,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2841,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2880,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2919,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2958,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2997,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3036,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3075,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3114,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3153,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3192,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3231,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3270,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3309,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3348,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3387,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3426,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3465,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3501,19 +3289,11 @@
         <v>-1970112.08284918</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J88" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3542,19 +3322,11 @@
         <v>-1970112.08284918</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3583,19 +3355,11 @@
         <v>-2797060.50824918</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3624,19 +3388,11 @@
         <v>-3395560.50824918</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3665,19 +3421,11 @@
         <v>-3369404.71444918</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3706,19 +3454,11 @@
         <v>-2774974.65954918</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J93" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3747,19 +3487,11 @@
         <v>-2873055.541849181</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3788,19 +3520,11 @@
         <v>-2872848.794049181</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3829,19 +3553,11 @@
         <v>-2872838.794049181</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3873,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3909,19 +3619,11 @@
         <v>-3335117.211149181</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3950,19 +3652,11 @@
         <v>-3335117.211149181</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3991,19 +3685,11 @@
         <v>-3436453.976749181</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4032,19 +3718,11 @@
         <v>-3803004.870849181</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4073,19 +3751,11 @@
         <v>-3803004.870849181</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J102" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4114,19 +3784,11 @@
         <v>-3802994.870849181</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J103" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4155,19 +3817,11 @@
         <v>-3878809.654149181</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J104" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4196,19 +3850,11 @@
         <v>-3878799.654149181</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J105" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4237,19 +3883,11 @@
         <v>-3878799.654149181</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J106" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4278,19 +3916,11 @@
         <v>-4113454.387749181</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J107" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4325,13 +3955,9 @@
         <v>11.7</v>
       </c>
       <c r="J108" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.7</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4366,11 +3992,11 @@
         <v>11.8</v>
       </c>
       <c r="J109" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4407,11 +4033,11 @@
         <v>11.9</v>
       </c>
       <c r="J110" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4448,13 +4074,9 @@
         <v>11.8</v>
       </c>
       <c r="J111" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.8</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4489,11 +4111,11 @@
         <v>11.8</v>
       </c>
       <c r="J112" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4530,7 +4152,7 @@
         <v>11.7</v>
       </c>
       <c r="J113" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4565,13 +4187,11 @@
         <v>-4191624.656149181</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4612,7 +4232,7 @@
         <v>11.7</v>
       </c>
       <c r="J115" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4653,7 +4273,7 @@
         <v>11.7</v>
       </c>
       <c r="J116" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4694,7 +4314,7 @@
         <v>11.7</v>
       </c>
       <c r="J117" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4735,7 +4355,7 @@
         <v>11.9</v>
       </c>
       <c r="J118" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4776,7 +4396,7 @@
         <v>11.7</v>
       </c>
       <c r="J119" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4817,7 +4437,7 @@
         <v>11.8</v>
       </c>
       <c r="J120" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4858,7 +4478,7 @@
         <v>11.7</v>
       </c>
       <c r="J121" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4899,7 +4519,7 @@
         <v>11.7</v>
       </c>
       <c r="J122" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4940,7 +4560,7 @@
         <v>11.8</v>
       </c>
       <c r="J123" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4981,7 +4601,7 @@
         <v>11.8</v>
       </c>
       <c r="J124" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5022,7 +4642,7 @@
         <v>11.9</v>
       </c>
       <c r="J125" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5063,7 +4683,7 @@
         <v>11.9</v>
       </c>
       <c r="J126" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5104,7 +4724,7 @@
         <v>11.8</v>
       </c>
       <c r="J127" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5145,7 +4765,7 @@
         <v>11.8</v>
       </c>
       <c r="J128" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5186,7 +4806,7 @@
         <v>11.8</v>
       </c>
       <c r="J129" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5227,7 +4847,7 @@
         <v>11.9</v>
       </c>
       <c r="J130" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5266,7 +4886,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5301,11 +4921,13 @@
         <v>-3643974.71654918</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>11.8</v>
+      </c>
       <c r="J132" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5344,7 +4966,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5383,7 +5005,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5418,11 +5040,13 @@
         <v>-3905839.60304918</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J135" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5457,11 +5081,13 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>11.8</v>
+      </c>
       <c r="J136" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5496,11 +5122,13 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J137" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5535,11 +5163,13 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J138" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5574,11 +5204,13 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J139" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5613,11 +5245,13 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J140" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5652,11 +5286,13 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J141" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5691,11 +5327,13 @@
         <v>-3893859.889649181</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J142" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5730,11 +5368,13 @@
         <v>-3956321.044449181</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J143" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5769,11 +5409,13 @@
         <v>-3956321.044449181</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>11.8</v>
+      </c>
       <c r="J144" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5814,7 +5456,7 @@
         <v>11.8</v>
       </c>
       <c r="J145" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5855,7 +5497,7 @@
         <v>11.8</v>
       </c>
       <c r="J146" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5896,7 +5538,7 @@
         <v>11.8</v>
       </c>
       <c r="J147" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5937,7 +5579,7 @@
         <v>12</v>
       </c>
       <c r="J148" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5972,11 +5614,13 @@
         <v>-3942060.494449181</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>12</v>
+      </c>
       <c r="J149" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6017,7 +5661,7 @@
         <v>12</v>
       </c>
       <c r="J150" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6052,11 +5696,13 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J151" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6091,11 +5737,13 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J152" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6130,11 +5778,13 @@
         <v>-3990962.796049181</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J153" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6175,7 +5825,7 @@
         <v>11.9</v>
       </c>
       <c r="J154" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6210,11 +5860,13 @@
         <v>-3639631.079049181</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>12</v>
+      </c>
       <c r="J155" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6249,11 +5901,13 @@
         <v>-3639631.079049181</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J156" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6288,11 +5942,13 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J157" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6327,11 +5983,13 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>12</v>
+      </c>
       <c r="J158" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6366,11 +6024,13 @@
         <v>-3720830.986749181</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>12</v>
+      </c>
       <c r="J159" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6405,11 +6065,13 @@
         <v>-3764352.852149181</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>12</v>
+      </c>
       <c r="J160" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6444,11 +6106,13 @@
         <v>-1814342.852149181</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J161" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6483,11 +6147,13 @@
         <v>-1666857.722549181</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J162" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6526,7 +6192,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6565,7 +6231,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6604,7 +6270,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6643,7 +6309,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6682,7 +6348,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6721,7 +6387,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6760,7 +6426,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6799,7 +6465,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6834,19 +6500,19 @@
         <v>-548615.4746491805</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L171" t="n">
-        <v>1.028613445378151</v>
+        <v>1</v>
       </c>
       <c r="M171" t="inlineStr"/>
     </row>
@@ -6876,8 +6542,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6909,8 +6581,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6942,8 +6620,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6975,8 +6659,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7008,8 +6698,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7041,8 +6737,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7074,8 +6776,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7107,8 +6815,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7140,8 +6854,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7173,8 +6893,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7206,8 +6932,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7239,8 +6971,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7272,8 +7010,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7305,8 +7049,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7338,8 +7088,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7371,8 +7127,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7404,8 +7166,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7437,8 +7205,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7470,8 +7244,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7503,8 +7283,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7536,8 +7322,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7569,8 +7361,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7602,8 +7400,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7635,8 +7439,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7668,8 +7478,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7701,8 +7517,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7734,8 +7556,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7767,8 +7595,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7800,8 +7634,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7833,8 +7673,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7866,8 +7712,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7899,8 +7751,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7932,8 +7790,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7965,8 +7829,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7998,8 +7868,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8031,8 +7907,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8064,8 +7946,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8097,8 +7985,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8130,8 +8024,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8163,8 +8063,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8196,8 +8102,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8229,8 +8141,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8262,8 +8180,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8295,8 +8219,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8328,8 +8258,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8361,8 +8297,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8394,8 +8336,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8427,8 +8375,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8460,8 +8414,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8493,8 +8453,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8526,8 +8492,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8559,8 +8531,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8592,8 +8570,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8625,8 +8609,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8655,11 +8645,17 @@
         <v>1624906.643901448</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8688,11 +8684,17 @@
         <v>1638639.050101448</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8721,11 +8723,17 @@
         <v>2751697.66279598</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8754,11 +8762,17 @@
         <v>3119897.47709598</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8787,11 +8801,17 @@
         <v>2173384.91279598</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8820,11 +8840,17 @@
         <v>2099040.80909598</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8853,11 +8879,17 @@
         <v>2432068.33349598</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8886,11 +8918,17 @@
         <v>2343065.47729598</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8919,11 +8957,17 @@
         <v>2343065.47729598</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8952,11 +8996,17 @@
         <v>2670861.60419598</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8985,11 +9035,17 @@
         <v>2604353.94529598</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9018,11 +9074,17 @@
         <v>2125999.97079598</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9051,11 +9113,17 @@
         <v>2125999.97079598</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9084,11 +9152,17 @@
         <v>2125999.97079598</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9117,11 +9191,17 @@
         <v>2229132.83459598</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9150,11 +9230,17 @@
         <v>2198043.12079598</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9183,11 +9269,17 @@
         <v>2198043.12079598</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9216,11 +9308,17 @@
         <v>2136906.021395979</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9249,11 +9347,17 @@
         <v>1997514.403395979</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9282,11 +9386,17 @@
         <v>1997514.403395979</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9315,11 +9425,17 @@
         <v>1997527.403395979</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9348,11 +9464,17 @@
         <v>1870822.873795979</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9381,11 +9503,17 @@
         <v>1957175.565795979</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9414,11 +9542,17 @@
         <v>1886847.45679598</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9447,11 +9581,17 @@
         <v>2675289.335295979</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9480,11 +9620,17 @@
         <v>2709066.71099598</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9513,11 +9659,17 @@
         <v>2603852.550995979</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9546,11 +9698,17 @@
         <v>2623027.923295979</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9579,11 +9737,17 @@
         <v>2623010.538695979</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9612,11 +9776,17 @@
         <v>2623021.538695979</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9648,8 +9818,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9681,8 +9857,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9714,8 +9896,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9747,8 +9935,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9780,8 +9974,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9813,8 +10013,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9846,8 +10052,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9879,8 +10091,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9912,8 +10130,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9945,8 +10169,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9978,8 +10208,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10011,8 +10247,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10044,8 +10286,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10077,8 +10325,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10110,8 +10364,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10143,8 +10403,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10176,8 +10442,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10209,8 +10481,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10242,8 +10520,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10275,8 +10559,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10308,8 +10598,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10341,8 +10637,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10374,8 +10676,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10407,8 +10715,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10440,8 +10754,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10473,8 +10793,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10506,8 +10832,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10539,8 +10871,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10572,8 +10910,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10605,8 +10949,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10638,8 +10988,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10668,11 +11024,17 @@
         <v>2982364.311795979</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10704,8 +11066,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10734,11 +11102,17 @@
         <v>3227280.384095979</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10767,11 +11141,17 @@
         <v>3227280.384095979</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10800,11 +11180,17 @@
         <v>2692958.631095979</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10833,11 +11219,17 @@
         <v>1801473.584195979</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10866,11 +11258,17 @@
         <v>2086703.369095979</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10899,11 +11297,17 @@
         <v>2086703.369095979</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10932,11 +11336,17 @@
         <v>2052035.604595979</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10965,11 +11375,17 @@
         <v>2052035.604595979</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11001,8 +11417,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11034,8 +11456,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11067,8 +11495,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11100,8 +11534,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11133,8 +11573,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11163,11 +11609,17 @@
         <v>1791233.69779598</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11196,11 +11648,17 @@
         <v>1791233.69779598</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11229,11 +11687,17 @@
         <v>1791233.69779598</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11262,11 +11726,17 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11295,11 +11765,17 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11328,11 +11804,17 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11361,11 +11843,17 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11394,11 +11882,17 @@
         <v>1804564.35039598</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11427,11 +11921,17 @@
         <v>1598149.916157518</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11460,11 +11960,17 @@
         <v>1805912.542957518</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11493,11 +11999,17 @@
         <v>1640064.262957518</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11526,11 +12038,17 @@
         <v>1640064.262957518</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11559,11 +12077,17 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11592,11 +12116,17 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11625,11 +12155,17 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11658,11 +12194,17 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11691,11 +12233,17 @@
         <v>1475192.270257518</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11727,8 +12275,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11760,8 +12314,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11793,8 +12353,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11826,8 +12392,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11856,11 +12428,17 @@
         <v>1696682.963957518</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11892,8 +12470,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11922,11 +12506,17 @@
         <v>4690054.618919057</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11958,8 +12548,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11991,8 +12587,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12024,8 +12626,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12057,8 +12665,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12090,8 +12704,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12123,8 +12743,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12156,8 +12782,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12189,8 +12821,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12222,8 +12860,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12255,8 +12899,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12288,8 +12938,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12321,8 +12977,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12354,8 +13016,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12387,8 +13055,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12420,8 +13094,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12453,8 +13133,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12486,8 +13172,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12519,8 +13211,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12552,8 +13250,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12585,8 +13289,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12618,8 +13328,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12651,8 +13367,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12684,8 +13406,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12717,8 +13445,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12750,8 +13484,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12783,8 +13523,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12816,8 +13562,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12849,8 +13601,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12879,11 +13637,17 @@
         <v>7729990.329005411</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12912,11 +13676,17 @@
         <v>7729990.329005411</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12945,11 +13715,17 @@
         <v>7729990.329005411</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12981,8 +13757,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13014,8 +13796,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13047,8 +13835,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13080,8 +13874,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13113,8 +13913,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13146,8 +13952,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13179,8 +13991,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13212,8 +14030,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13245,8 +14069,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13278,8 +14108,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13311,8 +14147,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13344,8 +14186,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13377,8 +14225,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13410,8 +14264,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13443,8 +14303,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13476,8 +14342,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13509,8 +14381,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13542,8 +14420,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13575,8 +14459,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13608,8 +14498,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13641,8 +14537,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13674,8 +14576,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13707,8 +14615,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13740,8 +14654,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13773,8 +14693,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13806,8 +14732,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13839,8 +14771,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13872,8 +14810,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13905,8 +14849,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13938,8 +14888,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13971,8 +14927,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14004,8 +14966,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14037,8 +15005,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14067,15 +15041,23 @@
         <v>9172597.349722583</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
+        <v>1.156016949152542</v>
+      </c>
+      <c r="M390" t="n">
+        <v>1.077586206896552</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -14100,7 +15082,7 @@
         <v>9172597.349722583</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14133,7 +15115,7 @@
         <v>9172597.349722583</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14430,7 +15412,7 @@
         <v>10269207.08503127</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14463,7 +15445,7 @@
         <v>9824028.509431275</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14496,7 +15478,7 @@
         <v>10116138.57101699</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14529,7 +15511,7 @@
         <v>10116138.57101699</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14562,7 +15544,7 @@
         <v>9405689.03561699</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14595,7 +15577,7 @@
         <v>9405689.03561699</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14628,7 +15610,7 @@
         <v>9673815.56331699</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14661,7 +15643,7 @@
         <v>9326156.90851699</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14694,7 +15676,7 @@
         <v>9326156.90851699</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14727,7 +15709,7 @@
         <v>8923480.097816991</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14793,7 +15775,7 @@
         <v>9476091.192216991</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14826,7 +15808,7 @@
         <v>9600517.04781699</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14859,7 +15841,7 @@
         <v>9600517.04781699</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14892,7 +15874,7 @@
         <v>9784157.43611699</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14925,7 +15907,7 @@
         <v>9946131.512578692</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14958,7 +15940,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14991,7 +15973,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15024,7 +16006,7 @@
         <v>9681765.465278693</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15057,7 +16039,7 @@
         <v>8913493.317178693</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15090,7 +16072,7 @@
         <v>9016440.998278692</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15123,7 +16105,7 @@
         <v>9016440.998278692</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15156,7 +16138,7 @@
         <v>9016440.998278692</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15189,7 +16171,7 @@
         <v>9112651.247478692</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15222,7 +16204,7 @@
         <v>9112651.247478692</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15255,7 +16237,7 @@
         <v>9112408.147478692</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15288,7 +16270,7 @@
         <v>9112408.147478692</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15321,7 +16303,7 @@
         <v>8686830.413078692</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15354,7 +16336,7 @@
         <v>8686830.413078692</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15387,7 +16369,7 @@
         <v>8686830.413078692</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15420,7 +16402,7 @@
         <v>8169365.413078692</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15453,7 +16435,7 @@
         <v>7925176.728778692</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15618,7 +16600,7 @@
         <v>8106340.907378692</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15651,7 +16633,7 @@
         <v>8180807.976878692</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
